--- a/medicine/Enfance/Virginie_Aladjidi/Virginie_Aladjidi.xlsx
+++ b/medicine/Enfance/Virginie_Aladjidi/Virginie_Aladjidi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Virginie Aladjidi est une auteure et éditrice, en littérature jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Virginie Aladjidi nait en 1971. Elle travaille dans l'édition et la presse jeunesse. Elle collabore beaucoup avec Caroline Pellissier, illustratrice avec qui elle réalise de nombreux ouvrages.
 </t>
@@ -542,9 +556,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Virginie Aladjidi a participé à de nombreux livres[1],[2],[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Virginie Aladjidi a participé à de nombreux livres
 Petits psaumes : La mer, avec Caroline Pellissier, Bayard jeunesse, 2003  (ISBN 9782747008945)
 Petits psaumes : La terre , avec Caroline Pellissier, Bayard jeunesse, 2003  (ISBN 9782747008952)
 Petits paumes (les): Le ciel , avec Caroline Pellissier, Bayard jeunesse, 2003  (ISBN 9782747008969)
@@ -619,7 +635,7 @@
 C'est Noël !, éditions Fleurus, 2012  (ISBN 9782215119197)
 Chut, c'est une surprise, Hatier, 2013   (ISBN 9782218971730)
 Atlas des animaux, avec Emmanuelle Tchoukriel , Albin Michel jeunesse, 2013   (ISBN 9782226250889)
-Aladjidi, Virginie, 1971-, Inventaire illustré des insectes, Paris, A. Michel jeunesse, 2013 (ISBN 978-2-226-24943-2 et 2-226-24943-5, OCLC 863000691, lire en ligne)[4],[5]
+Aladjidi, Virginie, 1971-, Inventaire illustré des insectes, Paris, A. Michel jeunesse, 2013 (ISBN 978-2-226-24943-2 et 2-226-24943-5, OCLC 863000691, lire en ligne),
 Famille nombreuse, avec Caroline Pellissier et Nathalie Grenier, éditions Thierry Magnier, 2013   (ISBN 9782364743076)
 Paroles du Seigneur, avec Caroline Pellissier et Lucie Minne, Mame, 2013   (ISBN 9782728916900)
 Abécédaire pour parler de dieu aux petits, Bayard jeunesse, 2013   (ISBN 9782747042963)
